--- a/Supplementary Files/Supplementary_File_S4.xlsx
+++ b/Supplementary Files/Supplementary_File_S4.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="240" yWindow="60" windowWidth="20115" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="Time" sheetId="7" r:id="rId1"/>
+    <sheet name="C.Size" sheetId="7" r:id="rId1"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -846,13 +846,13 @@
     <xf numFmtId="3" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1200,7 +1200,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3:G17"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1218,15 +1218,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
       <c r="H1" s="7"/>
       <c r="I1" s="1"/>
       <c r="J1" s="7"/>
@@ -1255,11 +1255,11 @@
       <c r="G2" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="H2" s="24"/>
-      <c r="I2" s="24"/>
-      <c r="J2" s="24"/>
-      <c r="K2" s="24"/>
-      <c r="L2" s="24"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="25"/>
+      <c r="K2" s="25"/>
+      <c r="L2" s="25"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
@@ -1657,10 +1657,10 @@
       <c r="A17" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="B17" s="25">
+      <c r="B17" s="23">
         <v>189752667</v>
       </c>
-      <c r="C17" s="25">
+      <c r="C17" s="23">
         <v>38877294</v>
       </c>
       <c r="D17" s="14" t="s">
@@ -1672,7 +1672,7 @@
       <c r="F17" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="G17" s="25">
+      <c r="G17" s="23">
         <v>42357822</v>
       </c>
       <c r="H17" s="8"/>
@@ -1712,13 +1712,13 @@
       <c r="L19" s="15"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" s="24" t="s">
+      <c r="A20" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="B20" s="24"/>
-      <c r="C20" s="24"/>
-      <c r="D20" s="24"/>
-      <c r="E20" s="24"/>
+      <c r="B20" s="25"/>
+      <c r="C20" s="25"/>
+      <c r="D20" s="25"/>
+      <c r="E20" s="25"/>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
@@ -1744,18 +1744,18 @@
       <c r="L21" s="15"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" s="24" t="s">
+      <c r="A22" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="B22" s="24"/>
-      <c r="C22" s="24"/>
-      <c r="D22" s="24"/>
-      <c r="E22" s="24"/>
-      <c r="F22" s="24"/>
-      <c r="G22" s="24"/>
-      <c r="H22" s="24"/>
-      <c r="I22" s="24"/>
-      <c r="J22" s="24"/>
+      <c r="B22" s="25"/>
+      <c r="C22" s="25"/>
+      <c r="D22" s="25"/>
+      <c r="E22" s="25"/>
+      <c r="F22" s="25"/>
+      <c r="G22" s="25"/>
+      <c r="H22" s="25"/>
+      <c r="I22" s="25"/>
+      <c r="J22" s="25"/>
       <c r="K22" s="15"/>
       <c r="L22" s="15"/>
     </row>
